--- a/Defect_Log.xlsx
+++ b/Defect_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="8_{4A3C1B3D-DB77-4359-A5AA-0CFD9C16B28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C1C80F-0AD1-4F4C-B860-516AC3D9C8D1}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{4A3C1B3D-DB77-4359-A5AA-0CFD9C16B28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE29A7D-6A42-4B47-836A-82102C59CFDA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CE93CBE6-1505-4CAB-A450-EA4C7AE242C3}"/>
   </bookViews>
@@ -642,15 +642,15 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="34.28515625" customWidth="1"/>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -774,7 +774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -812,7 +812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -885,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>52</v>
       </c>
